--- a/src/main/resources/example.xlsx
+++ b/src/main/resources/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjiao/git/smileforever02/yzdx/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FDAAAF-8040-8C45-BCFA-4CB7C00EFFF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C311366-DEDC-E94D-A85A-57BC8D51D557}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1740" windowWidth="28040" windowHeight="17440" xr2:uid="{E466A769-09DB-D940-BD7F-997F9C042120}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
